--- a/dfs/df_away.xlsx
+++ b/dfs/df_away.xlsx
@@ -572,79 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.6</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>44.4</v>
+        <v>44.83333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8</v>
+        <v>416.5</v>
       </c>
       <c r="F2" t="n">
-        <v>304.4</v>
+        <v>314.3333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>9.800000000000001</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>40.2</v>
+        <v>37.83333333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>18.8</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P2" t="n">
-        <v>13.8</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.2</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>12.6</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>521.2</v>
+        <v>527.6666666666666</v>
       </c>
       <c r="T2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V2" t="n">
-        <v>10.8</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="Z2" t="n">
-        <v>76.40000000000001</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="3">
@@ -654,79 +654,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>53.6</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>519.6</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>426.2</v>
+        <v>415.5</v>
       </c>
       <c r="G3" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>19.2</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="M3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P3" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="T3" t="n">
-        <v>18.8</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="U3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>6.8</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="X3" t="n">
-        <v>7.8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>68.8</v>
+        <v>68.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>376</v>
       </c>
       <c r="F4" t="n">
-        <v>262.3333333333333</v>
+        <v>262</v>
       </c>
       <c r="G4" t="n">
         <v>13.5</v>
@@ -766,7 +766,7 @@
         <v>6.833333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="M4" t="n">
         <v>2.5</v>
@@ -784,19 +784,19 @@
         <v>5.833333333333333</v>
       </c>
       <c r="R4" t="n">
-        <v>19.16666666666667</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
-        <v>490.3333333333333</v>
+        <v>490.6666666666667</v>
       </c>
       <c r="T4" t="n">
         <v>23</v>
       </c>
       <c r="U4" t="n">
-        <v>12.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>12.16666666666667</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -808,7 +808,7 @@
         <v>18.66666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>64.16666666666667</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -827,10 +827,10 @@
         <v>49.66666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>453.1666666666667</v>
+        <v>453.3333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>349.8333333333333</v>
+        <v>350.5</v>
       </c>
       <c r="G5" t="n">
         <v>11.33333333333333</v>
@@ -848,7 +848,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>22.5</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="M5" t="n">
         <v>2.333333333333333</v>
@@ -869,13 +869,13 @@
         <v>17.66666666666667</v>
       </c>
       <c r="S5" t="n">
-        <v>556.1666666666666</v>
+        <v>557.5</v>
       </c>
       <c r="T5" t="n">
         <v>13.83333333333333</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V5" t="n">
         <v>10.33333333333333</v>
@@ -900,37 +900,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>63.4</v>
+        <v>61.16666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>572.8</v>
+        <v>538.1666666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>473.4</v>
+        <v>436.8333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>24.8</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>11.4</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -942,37 +942,37 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="R6" t="n">
-        <v>26.6</v>
+        <v>24.5</v>
       </c>
       <c r="S6" t="n">
-        <v>671.6</v>
+        <v>641.8333333333334</v>
       </c>
       <c r="T6" t="n">
-        <v>15.8</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="U6" t="n">
-        <v>6.4</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="Z6" t="n">
-        <v>84.40000000000001</v>
+        <v>84.16666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1033,7 +1033,7 @@
         <v>23.66666666666667</v>
       </c>
       <c r="S7" t="n">
-        <v>514.8333333333334</v>
+        <v>514.5</v>
       </c>
       <c r="T7" t="n">
         <v>16.5</v>
@@ -1115,7 +1115,7 @@
         <v>20.83333333333333</v>
       </c>
       <c r="S8" t="n">
-        <v>599.5</v>
+        <v>599.1666666666666</v>
       </c>
       <c r="T8" t="n">
         <v>14.16666666666667</v>
@@ -1146,79 +1146,79 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8</v>
+        <v>50.5</v>
       </c>
       <c r="E9" t="n">
-        <v>456.4</v>
+        <v>480.5</v>
       </c>
       <c r="F9" t="n">
-        <v>371.6</v>
+        <v>390.6666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>34.4</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>16</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
-        <v>11.6</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.6</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="R9" t="n">
-        <v>13.8</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="S9" t="n">
-        <v>558.2</v>
+        <v>582.5</v>
       </c>
       <c r="T9" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="U9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X9" t="n">
-        <v>7.4</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.4</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="Z9" t="n">
-        <v>67.2</v>
+        <v>69.83333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1322,7 +1322,7 @@
         <v>363.6666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>267</v>
+        <v>266.8333333333333</v>
       </c>
       <c r="G11" t="n">
         <v>8.5</v>
@@ -1361,7 +1361,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="S11" t="n">
-        <v>474.1666666666667</v>
+        <v>473.8333333333333</v>
       </c>
       <c r="T11" t="n">
         <v>19.33333333333333</v>
@@ -1392,79 +1392,79 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>466.4</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>367.4</v>
+        <v>367</v>
       </c>
       <c r="G12" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>10.8</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>29.6</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="P12" t="n">
-        <v>9.6</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.6</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="R12" t="n">
-        <v>16.8</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="S12" t="n">
-        <v>568.6</v>
+        <v>569.3333333333334</v>
       </c>
       <c r="T12" t="n">
-        <v>16.2</v>
+        <v>18</v>
       </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
-        <v>12.4</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X12" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.8</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="Z12" t="n">
-        <v>73.40000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1607,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="S14" t="n">
-        <v>677</v>
+        <v>676.5</v>
       </c>
       <c r="T14" t="n">
         <v>16.83333333333333</v>
@@ -1638,79 +1638,79 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.166666666666667</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="C15" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D15" t="n">
-        <v>46.66666666666666</v>
+        <v>49.57142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>438.3333333333333</v>
+        <v>460.1428571428572</v>
       </c>
       <c r="F15" t="n">
-        <v>351.6666666666667</v>
+        <v>372.7142857142857</v>
       </c>
       <c r="G15" t="n">
-        <v>11.33333333333333</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.666666666666667</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="J15" t="n">
-        <v>36.16666666666666</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="K15" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="L15" t="n">
-        <v>22.16666666666667</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="M15" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.166666666666667</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="R15" t="n">
-        <v>11.66666666666667</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="S15" t="n">
-        <v>547</v>
+        <v>567.8571428571429</v>
       </c>
       <c r="T15" t="n">
-        <v>14.83333333333333</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="U15" t="n">
-        <v>10.66666666666667</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="X15" t="n">
-        <v>8.333333333333334</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.83333333333333</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="Z15" t="n">
-        <v>61.33333333333334</v>
+        <v>60.71428571428572</v>
       </c>
     </row>
     <row r="16">
@@ -1720,79 +1720,79 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8</v>
+        <v>46.33333333333334</v>
       </c>
       <c r="E16" t="n">
-        <v>460.6</v>
+        <v>459.3333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>358.6</v>
+        <v>358.8333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>12.2</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>8.6</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="L16" t="n">
-        <v>18.6</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="R16" t="n">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="S16" t="n">
-        <v>562.4</v>
+        <v>560.5</v>
       </c>
       <c r="T16" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="U16" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="V16" t="n">
-        <v>10.8</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="X16" t="n">
-        <v>10.6</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.2</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="Z16" t="n">
-        <v>66.40000000000001</v>
+        <v>67.16666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1802,79 +1802,79 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>415.6</v>
+        <v>424.5</v>
       </c>
       <c r="F17" t="n">
-        <v>300.2</v>
+        <v>310.6666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>11.2</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="L17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>3.2</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.2</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="P17" t="n">
-        <v>15</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S17" t="n">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="T17" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="U17" t="n">
-        <v>9.800000000000001</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>18.6</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.8</v>
+        <v>24.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>74.2</v>
+        <v>74.83333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1884,79 +1884,79 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>52.8</v>
+        <v>49.5</v>
       </c>
       <c r="E18" t="n">
-        <v>533</v>
+        <v>503.6666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>435.6</v>
+        <v>410</v>
       </c>
       <c r="G18" t="n">
-        <v>15.6</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="J18" t="n">
-        <v>38.6</v>
+        <v>42.16666666666666</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>14.8</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="P18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.4</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>628.6</v>
+        <v>599.5</v>
       </c>
       <c r="T18" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="V18" t="n">
-        <v>8.6</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.4</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="Z18" t="n">
-        <v>76.40000000000001</v>
+        <v>71.83333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1972,25 +1972,25 @@
         <v>2.166666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>46.66666666666666</v>
+        <v>46.83333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>441</v>
+        <v>441.3333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>347.1666666666667</v>
+        <v>347.6666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>9.666666666666666</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="I19" t="n">
-        <v>8.833333333333334</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="K19" t="n">
         <v>5.166666666666667</v>
@@ -2017,7 +2017,7 @@
         <v>14.83333333333333</v>
       </c>
       <c r="S19" t="n">
-        <v>536</v>
+        <v>536.5</v>
       </c>
       <c r="T19" t="n">
         <v>15.66666666666667</v>
@@ -2026,7 +2026,7 @@
         <v>7.166666666666667</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="W19" t="n">
         <v>2.666666666666667</v>
@@ -2038,7 +2038,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="Z19" t="n">
-        <v>59</v>
+        <v>59.16666666666666</v>
       </c>
     </row>
     <row r="20">
@@ -2130,79 +2130,79 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.4</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>53.2</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>480.4</v>
+        <v>495.1666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>398</v>
+        <v>408.5</v>
       </c>
       <c r="G21" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I21" t="n">
-        <v>10.4</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>16.8</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>3.2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P21" t="n">
-        <v>12.2</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.8</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="S21" t="n">
-        <v>586.8</v>
+        <v>605</v>
       </c>
       <c r="T21" t="n">
-        <v>16.2</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="U21" t="n">
-        <v>10.6</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="V21" t="n">
-        <v>12.2</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="W21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X21" t="n">
-        <v>6.2</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.2</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="Z21" t="n">
-        <v>58.8</v>
+        <v>59.83333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/dfs/df_away.xlsx
+++ b/dfs/df_away.xlsx
@@ -736,79 +736,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.166666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>43.85714285714285</v>
       </c>
       <c r="E4" t="n">
-        <v>376</v>
+        <v>386.1428571428572</v>
       </c>
       <c r="F4" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G4" t="n">
-        <v>13.5</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>3.666666666666667</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="I4" t="n">
-        <v>9.833333333333334</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="J4" t="n">
-        <v>31.16666666666667</v>
+        <v>31.85714285714286</v>
       </c>
       <c r="K4" t="n">
-        <v>6.833333333333333</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>19.83333333333333</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="M4" t="n">
-        <v>2.5</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O4" t="n">
-        <v>2.666666666666667</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="P4" t="n">
-        <v>15</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.833333333333333</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="S4" t="n">
-        <v>490.6666666666667</v>
+        <v>497.5714285714286</v>
       </c>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>23.28571428571428</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.66666666666667</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>62.42857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -900,79 +900,79 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D6" t="n">
-        <v>61.16666666666666</v>
+        <v>59.71428571428572</v>
       </c>
       <c r="E6" t="n">
-        <v>538.1666666666666</v>
+        <v>531.4285714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>436.8333333333333</v>
+        <v>428.4285714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>16.16666666666667</v>
+        <v>14.57142857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="I6" t="n">
-        <v>12.66666666666667</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="J6" t="n">
-        <v>23.83333333333333</v>
+        <v>29</v>
       </c>
       <c r="K6" t="n">
-        <v>3.666666666666667</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="L6" t="n">
-        <v>12.66666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="P6" t="n">
-        <v>12.33333333333333</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="R6" t="n">
-        <v>24.5</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="S6" t="n">
-        <v>641.8333333333334</v>
+        <v>634.1428571428571</v>
       </c>
       <c r="T6" t="n">
-        <v>16.16666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="U6" t="n">
-        <v>7.333333333333333</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="V6" t="n">
-        <v>17</v>
+        <v>16.14285714285714</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.16666666666667</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="Z6" t="n">
-        <v>84.16666666666667</v>
+        <v>85.14285714285714</v>
       </c>
     </row>
     <row r="7">
@@ -982,79 +982,79 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C7" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D7" t="n">
-        <v>50.33333333333334</v>
+        <v>46.85714285714285</v>
       </c>
       <c r="E7" t="n">
-        <v>413.1666666666667</v>
+        <v>387.8571428571428</v>
       </c>
       <c r="F7" t="n">
-        <v>294.6666666666667</v>
+        <v>272.4285714285714</v>
       </c>
       <c r="G7" t="n">
-        <v>11.33333333333333</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="I7" t="n">
-        <v>8.833333333333334</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="J7" t="n">
-        <v>21.83333333333333</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="L7" t="n">
-        <v>15.16666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="M7" t="n">
-        <v>3.666666666666667</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O7" t="n">
-        <v>3.833333333333333</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="P7" t="n">
-        <v>18.33333333333333</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.166666666666667</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="R7" t="n">
-        <v>23.66666666666667</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="S7" t="n">
-        <v>514.5</v>
+        <v>489.8571428571428</v>
       </c>
       <c r="T7" t="n">
-        <v>16.5</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="U7" t="n">
-        <v>7.5</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="V7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="W7" t="n">
-        <v>3.333333333333333</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.66666666666667</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="Z7" t="n">
-        <v>72.83333333333333</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -1064,79 +1064,79 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="C8" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5</v>
+        <v>53.42857142857143</v>
       </c>
       <c r="E8" t="n">
-        <v>506.8333333333333</v>
+        <v>516.1428571428571</v>
       </c>
       <c r="F8" t="n">
-        <v>412.3333333333333</v>
+        <v>420.8571428571428</v>
       </c>
       <c r="G8" t="n">
-        <v>15.5</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>5.833333333333333</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>9.666666666666666</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="J8" t="n">
-        <v>41.83333333333334</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>4.666666666666667</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="L8" t="n">
-        <v>13.33333333333333</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="M8" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P8" t="n">
-        <v>14.5</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.666666666666667</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="R8" t="n">
-        <v>20.83333333333333</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="S8" t="n">
-        <v>599.1666666666666</v>
+        <v>607.2857142857143</v>
       </c>
       <c r="T8" t="n">
-        <v>14.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="U8" t="n">
-        <v>7.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="Z8" t="n">
-        <v>63.16666666666666</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -1228,79 +1228,79 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6</v>
+        <v>48.16666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>516.6</v>
+        <v>500.3333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>423.6</v>
+        <v>405.5</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>43</v>
+        <v>45.83333333333334</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>19.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>2.2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2.2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P10" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="R10" t="n">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="S10" t="n">
-        <v>618.4</v>
+        <v>605.8333333333334</v>
       </c>
       <c r="T10" t="n">
+        <v>16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="U10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15.4</v>
-      </c>
       <c r="Z10" t="n">
-        <v>65.40000000000001</v>
+        <v>66.83333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1310,79 +1310,79 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C11" t="n">
-        <v>1.333333333333333</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D11" t="n">
-        <v>38.83333333333334</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="E11" t="n">
-        <v>363.6666666666667</v>
+        <v>366.5714285714286</v>
       </c>
       <c r="F11" t="n">
-        <v>266.8333333333333</v>
+        <v>265.4285714285714</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="H11" t="n">
-        <v>2.833333333333333</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="I11" t="n">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>34.16666666666666</v>
+        <v>30.85714285714286</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="L11" t="n">
-        <v>22.16666666666667</v>
+        <v>22</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O11" t="n">
-        <v>2.166666666666667</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P11" t="n">
-        <v>12.66666666666667</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.166666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="R11" t="n">
-        <v>13.66666666666667</v>
+        <v>13.71428571428571</v>
       </c>
       <c r="S11" t="n">
-        <v>473.8333333333333</v>
+        <v>481.5714285714286</v>
       </c>
       <c r="T11" t="n">
-        <v>19.33333333333333</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="U11" t="n">
-        <v>11.5</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="W11" t="n">
-        <v>1.833333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="X11" t="n">
-        <v>7.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.5</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="Z11" t="n">
-        <v>66.83333333333333</v>
+        <v>70.28571428571429</v>
       </c>
     </row>
     <row r="12">
@@ -1556,79 +1556,79 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="E14" t="n">
-        <v>574.8333333333334</v>
+        <v>576</v>
       </c>
       <c r="F14" t="n">
-        <v>489.3333333333333</v>
+        <v>487.4285714285714</v>
       </c>
       <c r="G14" t="n">
-        <v>16.16666666666667</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="H14" t="n">
-        <v>5.666666666666667</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>9.285714285714286</v>
       </c>
       <c r="J14" t="n">
-        <v>34.83333333333334</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="L14" t="n">
-        <v>16.16666666666667</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="P14" t="n">
-        <v>10.5</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.833333333333333</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="R14" t="n">
-        <v>14.66666666666667</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="S14" t="n">
-        <v>676.5</v>
+        <v>678.1428571428571</v>
       </c>
       <c r="T14" t="n">
-        <v>16.83333333333333</v>
+        <v>16.14285714285714</v>
       </c>
       <c r="U14" t="n">
-        <v>6.833333333333333</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.66666666666667</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>58.33333333333334</v>
+        <v>59.14285714285715</v>
       </c>
     </row>
     <row r="15">
@@ -1884,79 +1884,79 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D18" t="n">
-        <v>49.5</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>503.6666666666667</v>
+        <v>506.5714285714286</v>
       </c>
       <c r="F18" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G18" t="n">
-        <v>14.66666666666667</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="I18" t="n">
-        <v>8.666666666666666</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="J18" t="n">
-        <v>42.16666666666666</v>
+        <v>40.42857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>2.833333333333333</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="L18" t="n">
-        <v>15.33333333333333</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="M18" t="n">
-        <v>2.166666666666667</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.166666666666667</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="S18" t="n">
-        <v>599.5</v>
+        <v>605.2857142857143</v>
       </c>
       <c r="T18" t="n">
-        <v>13.5</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="U18" t="n">
-        <v>8.166666666666666</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="V18" t="n">
-        <v>8.333333333333334</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="W18" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>8.833333333333334</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.66666666666667</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="Z18" t="n">
-        <v>71.83333333333333</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -1966,79 +1966,79 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C19" t="n">
-        <v>2.166666666666667</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D19" t="n">
-        <v>46.83333333333334</v>
+        <v>46.14285714285715</v>
       </c>
       <c r="E19" t="n">
-        <v>441.3333333333333</v>
+        <v>426.7142857142857</v>
       </c>
       <c r="F19" t="n">
-        <v>347.6666666666667</v>
+        <v>329.5714285714286</v>
       </c>
       <c r="G19" t="n">
-        <v>9.833333333333334</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="J19" t="n">
-        <v>6.833333333333333</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="K19" t="n">
-        <v>5.166666666666667</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="L19" t="n">
-        <v>14</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P19" t="n">
-        <v>12.16666666666667</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.166666666666667</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="R19" t="n">
-        <v>14.83333333333333</v>
+        <v>14.42857142857143</v>
       </c>
       <c r="S19" t="n">
-        <v>536.5</v>
+        <v>528.2857142857143</v>
       </c>
       <c r="T19" t="n">
-        <v>15.66666666666667</v>
+        <v>16.28571428571428</v>
       </c>
       <c r="U19" t="n">
-        <v>7.166666666666667</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="V19" t="n">
-        <v>11.33333333333333</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="W19" t="n">
-        <v>2.666666666666667</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="X19" t="n">
-        <v>5.166666666666667</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.16666666666667</v>
+        <v>23.42857142857143</v>
       </c>
       <c r="Z19" t="n">
-        <v>59.16666666666666</v>
+        <v>59.57142857142857</v>
       </c>
     </row>
     <row r="20">
@@ -2048,79 +2048,79 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.333333333333333</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="C20" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D20" t="n">
-        <v>48.33333333333334</v>
+        <v>47.71428571428572</v>
       </c>
       <c r="E20" t="n">
-        <v>443</v>
+        <v>441.2857142857143</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6666666666667</v>
+        <v>334.1428571428572</v>
       </c>
       <c r="G20" t="n">
-        <v>12.16666666666667</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="H20" t="n">
-        <v>4.833333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="I20" t="n">
-        <v>7.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>41.66666666666666</v>
+        <v>38.14285714285715</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="L20" t="n">
-        <v>17.66666666666667</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="M20" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="P20" t="n">
-        <v>16.83333333333333</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.166666666666667</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="R20" t="n">
-        <v>14.5</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="S20" t="n">
-        <v>550.3333333333334</v>
+        <v>546.8571428571429</v>
       </c>
       <c r="T20" t="n">
-        <v>15.83333333333333</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="U20" t="n">
+        <v>9.285714285714286</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
         <v>9</v>
       </c>
-      <c r="V20" t="n">
-        <v>14</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.666666666666666</v>
-      </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="Z20" t="n">
-        <v>67.66666666666667</v>
+        <v>70.14285714285714</v>
       </c>
     </row>
     <row r="21">

--- a/dfs/df_away.xlsx
+++ b/dfs/df_away.xlsx
@@ -572,79 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>44.83333333333334</v>
+        <v>47.14285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>416.5</v>
+        <v>439.7142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>314.3333333333333</v>
+        <v>331.7142857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>11.33333333333333</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>4.333333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>37.83333333333334</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="K2" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>18.83333333333333</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="M2" t="n">
-        <v>3.5</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.5</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="P2" t="n">
-        <v>13.66666666666667</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.833333333333333</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="R2" t="n">
-        <v>12.16666666666667</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="S2" t="n">
-        <v>527.6666666666666</v>
+        <v>553.2857142857143</v>
       </c>
       <c r="T2" t="n">
-        <v>19.5</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="U2" t="n">
-        <v>12.5</v>
+        <v>12.57142857142857</v>
       </c>
       <c r="V2" t="n">
-        <v>11.83333333333333</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="X2" t="n">
-        <v>8.166666666666666</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.16666666666667</v>
+        <v>23.28571428571428</v>
       </c>
       <c r="Z2" t="n">
-        <v>74.5</v>
+        <v>72.14285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -654,79 +654,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="C3" t="n">
-        <v>2.166666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>50.71428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>507.6666666666667</v>
+        <v>497.1428571428572</v>
       </c>
       <c r="F3" t="n">
-        <v>415.5</v>
+        <v>405</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>2.833333333333333</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>8.166666666666666</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>24.33333333333333</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="K3" t="n">
-        <v>6.166666666666667</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P3" t="n">
-        <v>12.5</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="S3" t="n">
-        <v>610</v>
+        <v>592.8571428571429</v>
       </c>
       <c r="T3" t="n">
-        <v>18.33333333333333</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="U3" t="n">
-        <v>9.166666666666666</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="V3" t="n">
-        <v>6.333333333333333</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="W3" t="n">
-        <v>1.833333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="X3" t="n">
-        <v>7.666666666666667</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>68.33333333333333</v>
+        <v>67.28571428571429</v>
       </c>
     </row>
     <row r="4">
@@ -818,79 +818,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>1.5</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D5" t="n">
-        <v>49.66666666666666</v>
+        <v>46.28571428571428</v>
       </c>
       <c r="E5" t="n">
-        <v>453.3333333333333</v>
+        <v>426.5714285714286</v>
       </c>
       <c r="F5" t="n">
-        <v>350.5</v>
+        <v>326.4285714285714</v>
       </c>
       <c r="G5" t="n">
-        <v>11.33333333333333</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="I5" t="n">
-        <v>7.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>35.66666666666666</v>
+        <v>33</v>
       </c>
       <c r="K5" t="n">
-        <v>4.666666666666667</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="L5" t="n">
-        <v>22.66666666666667</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="M5" t="n">
-        <v>2.333333333333333</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.333333333333333</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P5" t="n">
-        <v>9.666666666666666</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.833333333333333</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="R5" t="n">
-        <v>17.66666666666667</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="S5" t="n">
-        <v>557.5</v>
+        <v>532</v>
       </c>
       <c r="T5" t="n">
-        <v>13.83333333333333</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="U5" t="n">
-        <v>6.5</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="V5" t="n">
-        <v>10.33333333333333</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.66666666666667</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="Z5" t="n">
-        <v>62.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1097,13 +1097,13 @@
         <v>12.28571428571429</v>
       </c>
       <c r="M8" t="n">
-        <v>2.285714285714286</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.285714285714286</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="P8" t="n">
         <v>14.28571428571429</v>
@@ -1146,79 +1146,79 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D9" t="n">
-        <v>50.5</v>
+        <v>51.42857142857143</v>
       </c>
       <c r="E9" t="n">
-        <v>480.5</v>
+        <v>479.8571428571428</v>
       </c>
       <c r="F9" t="n">
-        <v>390.6666666666667</v>
+        <v>388.1428571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>10.16666666666667</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833333333333333</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="I9" t="n">
-        <v>6.333333333333333</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>33.85714285714285</v>
       </c>
       <c r="K9" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="L9" t="n">
-        <v>17.66666666666667</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="M9" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="P9" t="n">
-        <v>11.83333333333333</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.166666666666667</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="R9" t="n">
-        <v>15.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="S9" t="n">
-        <v>582.5</v>
+        <v>582.4285714285714</v>
       </c>
       <c r="T9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>9.166666666666666</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="V9" t="n">
-        <v>13.66666666666667</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X9" t="n">
-        <v>7.166666666666667</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.83333333333333</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="Z9" t="n">
-        <v>69.83333333333333</v>
+        <v>70.71428571428571</v>
       </c>
     </row>
     <row r="10">
@@ -1392,79 +1392,79 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D12" t="n">
-        <v>55.33333333333334</v>
+        <v>57.57142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>466.6666666666667</v>
+        <v>497.4285714285714</v>
       </c>
       <c r="F12" t="n">
-        <v>367</v>
+        <v>396.4285714285714</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>15.14285714285714</v>
       </c>
       <c r="H12" t="n">
-        <v>4.166666666666667</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="I12" t="n">
-        <v>10.83333333333333</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>26.71428571428572</v>
       </c>
       <c r="K12" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>13.66666666666667</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="M12" t="n">
-        <v>2.166666666666667</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.166666666666667</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P12" t="n">
-        <v>10.66666666666667</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.833333333333333</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="R12" t="n">
-        <v>15.66666666666667</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="S12" t="n">
-        <v>569.3333333333334</v>
+        <v>599.2857142857143</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>17.71428571428572</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="V12" t="n">
-        <v>13.66666666666667</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="W12" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.16666666666667</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="Z12" t="n">
-        <v>75</v>
+        <v>74.28571428571429</v>
       </c>
     </row>
     <row r="13">
@@ -1474,79 +1474,79 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>506.3333333333333</v>
+        <v>520.5714285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>417.3333333333333</v>
+        <v>434.4285714285714</v>
       </c>
       <c r="G13" t="n">
-        <v>10.66666666666667</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="J13" t="n">
-        <v>32</v>
+        <v>27.42857142857143</v>
       </c>
       <c r="K13" t="n">
-        <v>4.833333333333333</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>13.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="M13" t="n">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O13" t="n">
-        <v>2.333333333333333</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="P13" t="n">
-        <v>14.83333333333333</v>
+        <v>14.71428571428571</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.666666666666667</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="S13" t="n">
-        <v>601.1666666666666</v>
+        <v>612.2857142857143</v>
       </c>
       <c r="T13" t="n">
-        <v>18.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="U13" t="n">
-        <v>8.5</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="V13" t="n">
-        <v>10.5</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="W13" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.16666666666667</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="Z13" t="n">
-        <v>64.5</v>
+        <v>64.57142857142857</v>
       </c>
     </row>
     <row r="14">
@@ -1638,79 +1638,79 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.428571428571429</v>
+        <v>1.375</v>
       </c>
       <c r="C15" t="n">
-        <v>1.142857142857143</v>
+        <v>1.125</v>
       </c>
       <c r="D15" t="n">
-        <v>49.57142857142857</v>
+        <v>50.125</v>
       </c>
       <c r="E15" t="n">
-        <v>460.1428571428572</v>
+        <v>467.25</v>
       </c>
       <c r="F15" t="n">
-        <v>372.7142857142857</v>
+        <v>380.375</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71428571428571</v>
+        <v>11.625</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.714285714285714</v>
+        <v>7.625</v>
       </c>
       <c r="J15" t="n">
-        <v>37.14285714285715</v>
+        <v>37</v>
       </c>
       <c r="K15" t="n">
-        <v>2.714285714285714</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>21.28571428571428</v>
+        <v>19.25</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="P15" t="n">
-        <v>12</v>
+        <v>12.125</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.142857142857143</v>
+        <v>3.875</v>
       </c>
       <c r="R15" t="n">
-        <v>12.14285714285714</v>
+        <v>12.75</v>
       </c>
       <c r="S15" t="n">
-        <v>567.8571428571429</v>
+        <v>572.875</v>
       </c>
       <c r="T15" t="n">
-        <v>15.85714285714286</v>
+        <v>17.75</v>
       </c>
       <c r="U15" t="n">
-        <v>10.28571428571429</v>
+        <v>10.375</v>
       </c>
       <c r="V15" t="n">
-        <v>9.714285714285714</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.285714285714286</v>
+        <v>1.875</v>
       </c>
       <c r="X15" t="n">
-        <v>7.857142857142857</v>
+        <v>7.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.42857142857143</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>60.71428571428572</v>
+        <v>61.625</v>
       </c>
     </row>
     <row r="16">
@@ -1723,76 +1723,76 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.833333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="D16" t="n">
-        <v>46.33333333333334</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="E16" t="n">
-        <v>459.3333333333333</v>
+        <v>456.2857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>358.8333333333333</v>
+        <v>354.4285714285714</v>
       </c>
       <c r="G16" t="n">
-        <v>11.83333333333333</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="I16" t="n">
-        <v>7.833333333333333</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="K16" t="n">
-        <v>5.166666666666667</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="L16" t="n">
-        <v>19.16666666666667</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O16" t="n">
-        <v>2.666666666666667</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="P16" t="n">
-        <v>11.16666666666667</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.5</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="R16" t="n">
-        <v>18</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="S16" t="n">
-        <v>560.5</v>
+        <v>556.8571428571429</v>
       </c>
       <c r="T16" t="n">
-        <v>14.5</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="V16" t="n">
-        <v>10.83333333333333</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="W16" t="n">
-        <v>2.333333333333333</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="X16" t="n">
-        <v>9.666666666666666</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.83333333333333</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="Z16" t="n">
-        <v>67.16666666666667</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1802,79 +1802,79 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49.85714285714285</v>
       </c>
       <c r="E17" t="n">
-        <v>424.5</v>
+        <v>429.7142857142857</v>
       </c>
       <c r="F17" t="n">
-        <v>310.6666666666667</v>
+        <v>314.4285714285714</v>
       </c>
       <c r="G17" t="n">
-        <v>10.83333333333333</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>4.333333333333333</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>35.57142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>5.333333333333333</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="L17" t="n">
-        <v>16</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="M17" t="n">
-        <v>3.666666666666667</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.666666666666667</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="P17" t="n">
-        <v>14.66666666666667</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.333333333333333</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="R17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S17" t="n">
-        <v>530</v>
+        <v>535.7142857142857</v>
       </c>
       <c r="T17" t="n">
-        <v>16.66666666666667</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33333333333333</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="V17" t="n">
-        <v>16.66666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="W17" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>7.666666666666667</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.5</v>
+        <v>24.42857142857143</v>
       </c>
       <c r="Z17" t="n">
-        <v>74.83333333333333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -2130,79 +2130,79 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.5</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="C21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53.57142857142857</v>
       </c>
       <c r="E21" t="n">
-        <v>495.1666666666667</v>
+        <v>493</v>
       </c>
       <c r="F21" t="n">
-        <v>408.5</v>
+        <v>404.8571428571428</v>
       </c>
       <c r="G21" t="n">
-        <v>14.5</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="H21" t="n">
-        <v>4.166666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="I21" t="n">
-        <v>10.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>28.83333333333333</v>
+        <v>27.57142857142857</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="L21" t="n">
-        <v>17.16666666666667</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="M21" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="P21" t="n">
-        <v>11.66666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>12.83333333333333</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="S21" t="n">
-        <v>605</v>
+        <v>606.2857142857143</v>
       </c>
       <c r="T21" t="n">
-        <v>16.16666666666667</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="U21" t="n">
-        <v>9.833333333333334</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="V21" t="n">
-        <v>12.16666666666667</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>2.5</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="X21" t="n">
-        <v>6.666666666666667</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.16666666666667</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>59.83333333333334</v>
+        <v>59.71428571428572</v>
       </c>
     </row>
   </sheetData>
